--- a/bin/config/xlsx/mission.xlsx
+++ b/bin/config/xlsx/mission.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\turn-based-game\bin\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\turn-based-game\bin\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B923890-BD48-4D7A-AA1B-7A40AA083F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="4575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="4575" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="mission" sheetId="2" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>luhailong</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -883,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>1</v>

--- a/bin/config/xlsx/mission.xlsx
+++ b/bin/config/xlsx/mission.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\turn-based-game\bin\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="4575" windowWidth="21600" windowHeight="11295"/>
+    <workbookView windowWidth="21360" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="mission" sheetId="2" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <author>luhailong</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +31,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +96,9 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>condition表的id</t>
   </si>
   <si>
     <t>[1,2,3,4]</t>
@@ -151,8 +149,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,26 +165,350 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,9 +516,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -199,17 +769,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -467,25 +1081,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="4" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +1125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -537,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -545,7 +1159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -571,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -579,12 +1193,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -602,15 +1221,15 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -628,15 +1247,15 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -654,15 +1273,15 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -680,15 +1299,15 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -706,15 +1325,15 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -732,15 +1351,15 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -758,15 +1377,15 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -784,15 +1403,15 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -810,15 +1429,15 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -836,15 +1455,15 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -862,15 +1481,15 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -888,15 +1507,15 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -914,15 +1533,15 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -940,15 +1559,15 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -966,15 +1585,15 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -992,12 +1611,12 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/mission.xlsx
+++ b/bin/config/xlsx/mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="11670"/>
+    <workbookView windowWidth="21360" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="mission" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>luhailong</author>
+    <author>admin</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -55,12 +56,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否自动奖励</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +124,18 @@
     <t>condition表的id</t>
   </si>
   <si>
+    <t>1：主线，2：活动</t>
+  </si>
+  <si>
+    <t>自定义：非特殊情况1</t>
+  </si>
+  <si>
+    <t>0并行1顺序</t>
+  </si>
+  <si>
+    <t>是否自动奖励</t>
+  </si>
+  <si>
     <t>[1,2,3,4]</t>
   </si>
   <si>
@@ -144,6 +179,9 @@
   </si>
   <si>
     <t>[27,28]</t>
+  </si>
+  <si>
+    <t>[29]</t>
   </si>
 </sst>
 </file>
@@ -156,7 +194,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +347,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1087,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1193,17 +1237,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1221,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1229,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1247,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1255,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1273,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1281,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1299,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1307,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1325,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1333,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1351,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1359,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1377,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1385,7 +1441,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1403,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1411,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1429,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1437,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1455,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1463,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1481,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1489,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1507,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1515,7 +1571,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1533,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1541,7 +1597,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1559,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1567,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1585,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1593,7 +1649,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1611,7 +1667,33 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/mission.xlsx
+++ b/bin/config/xlsx/mission.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="10620"/>
+    <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="mission" sheetId="2" r:id="rId1"/>
+    <sheet name="Mission" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -187,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -203,34 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -247,6 +232,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -256,41 +280,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,7 +333,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,49 +380,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,121 +518,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,21 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,6 +603,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,148 +676,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,52 +828,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1134,13 +1147,13 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="4" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="13.8727272727273" customWidth="1"/>
+    <col min="2" max="4" width="20.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/bin/config/xlsx/mission.xlsx
+++ b/bin/config/xlsx/mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="8760"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="2" r:id="rId1"/>
@@ -894,7 +894,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1144,16 +1144,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.8727272727273" customWidth="1"/>
-    <col min="2" max="4" width="20.2545454545455" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="4" width="20.2583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1267,70 +1267,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1347,22 +1295,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1373,7 +1321,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1382,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1399,10 +1347,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1425,10 +1373,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1446,15 +1394,15 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1472,15 +1420,15 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1498,15 +1446,15 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1524,15 +1472,15 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1550,15 +1498,15 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1570,24 +1518,24 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1602,18 +1550,18 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1622,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1633,16 +1581,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1659,13 +1607,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1685,16 +1633,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,6 +1654,58 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
         <v>18</v>
       </c>
     </row>
